--- a/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_cao anh vuong.xlsx
+++ b/5. WS/1. Bộ phận bảo hành/1. Thực hiện sửa chữa bảo hành/nam2022/Thang10/2.XulyBH/XLBH2210_cao anh vuong.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25629"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BKB\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PhongBaoHanh\VNET\5. WS\1. Bộ phận bảo hành\1. Thực hiện sửa chữa bảo hành\nam2022\Thang10\2.XulyBH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6150F6A-5F20-410F-970E-D9905EEAA6FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="TG102V" sheetId="45" r:id="rId1"/>
@@ -43,7 +42,7 @@
     <definedName name="_xlnm.Criteria" localSheetId="8">TongThang!$S$4:$S$51</definedName>
     <definedName name="_xlnm.Criteria" localSheetId="2">'TOP-1'!$S$4:$S$51</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -58,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="672" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="81">
   <si>
     <t>STT</t>
   </si>
@@ -272,12 +271,6 @@
     <t>LE.2.00.---28.200624</t>
   </si>
   <si>
-    <t>QUANG</t>
-  </si>
-  <si>
-    <t>OK</t>
-  </si>
-  <si>
     <t>TB hoạt động BT</t>
   </si>
   <si>
@@ -310,11 +303,14 @@
   <si>
     <t>Nâng cấp FW+ thay vỏ hộp mới</t>
   </si>
+  <si>
+    <t>BT</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -760,6 +756,30 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -777,30 +797,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,23 +894,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -950,23 +929,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1142,11 +1104,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="D1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showZeros="0" topLeftCell="L1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1178,39 +1140,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -1255,58 +1217,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="58" t="s">
         <v>1</v>
       </c>
@@ -1331,23 +1293,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="58" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -1357,7 +1319,9 @@
       <c r="B6" s="61">
         <v>44848</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44852</v>
+      </c>
       <c r="D6" s="59" t="s">
         <v>63</v>
       </c>
@@ -1368,34 +1332,36 @@
       <c r="G6" s="59"/>
       <c r="H6" s="62"/>
       <c r="I6" s="63" t="s">
+        <v>70</v>
+      </c>
+      <c r="J6" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" s="65" t="s">
         <v>72</v>
       </c>
-      <c r="J6" s="64" t="s">
-        <v>77</v>
-      </c>
-      <c r="K6" s="65" t="s">
+      <c r="L6" s="66" t="s">
+        <v>72</v>
+      </c>
+      <c r="M6" s="66" t="s">
         <v>74</v>
-      </c>
-      <c r="L6" s="66" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="66" t="s">
-        <v>76</v>
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>18</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S6" s="3"/>
       <c r="T6" s="57"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -1407,8 +1373,12 @@
       <c r="A7" s="3">
         <v>2</v>
       </c>
-      <c r="B7" s="61"/>
-      <c r="C7" s="54"/>
+      <c r="B7" s="61">
+        <v>44848</v>
+      </c>
+      <c r="C7" s="61">
+        <v>44852</v>
+      </c>
       <c r="D7" s="59" t="s">
         <v>63</v>
       </c>
@@ -1418,37 +1388,39 @@
       <c r="F7" s="59"/>
       <c r="G7" s="59"/>
       <c r="H7" s="37" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I7" s="51" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K7" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="L7" s="39" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K7" s="55" t="s">
+      <c r="M7" s="39" t="s">
         <v>73</v>
-      </c>
-      <c r="L7" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="M7" s="39" t="s">
-        <v>75</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P7" s="39" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="R7" s="2"/>
+      <c r="R7" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="S7" s="3"/>
       <c r="T7" s="57"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -1477,7 +1449,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="57"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -1506,7 +1478,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="57"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1507,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="57"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1564,7 +1536,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="57"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -1593,7 +1565,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="57"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -1624,7 +1596,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="57"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1653,7 +1625,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="57"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -1682,7 +1654,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -1711,7 +1683,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -2170,7 +2142,7 @@
       </c>
       <c r="V31" s="9">
         <f>COUNTIF($R$6:$R$51,"*LK*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W31" s="13"/>
     </row>
@@ -2362,7 +2334,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -3427,13 +3399,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -3445,6 +3410,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3452,7 +3424,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -3488,39 +3460,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -3565,58 +3537,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -3641,23 +3613,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -3683,7 +3655,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -3714,7 +3686,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -3743,7 +3715,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -3772,7 +3744,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -3801,7 +3773,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3830,7 +3802,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -3859,7 +3831,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -3890,7 +3862,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3919,7 +3891,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -3948,7 +3920,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -3977,7 +3949,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -5693,6 +5665,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -5704,13 +5683,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5718,7 +5690,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -5754,39 +5726,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -5831,58 +5803,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -5907,23 +5879,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -5949,7 +5921,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -5980,7 +5952,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -6009,7 +5981,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -6038,7 +6010,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -6067,7 +6039,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -6096,7 +6068,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -6125,7 +6097,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -6156,7 +6128,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -6185,7 +6157,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -6214,7 +6186,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -6243,7 +6215,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -7959,6 +7931,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -7970,13 +7949,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7984,11 +7956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView showZeros="0" topLeftCell="A2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D27" sqref="D26:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8020,39 +7992,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -8097,58 +8069,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -8173,23 +8145,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -8215,7 +8187,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -8246,7 +8218,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -8275,7 +8247,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -8304,7 +8276,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -8333,7 +8305,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -8362,7 +8334,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -8391,7 +8363,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -8422,7 +8394,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -8451,7 +8423,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -8480,7 +8452,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -8509,7 +8481,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -10225,6 +10197,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -10236,13 +10215,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -10250,10 +10222,10 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -10286,39 +10258,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -10363,58 +10335,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -10439,23 +10411,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -10483,7 +10455,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -10514,7 +10486,7 @@
       <c r="R7" s="67"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -10543,7 +10515,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -10572,7 +10544,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -10601,7 +10573,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -10630,7 +10602,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -10659,7 +10631,7 @@
       <c r="R12" s="67"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -10690,7 +10662,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -10719,7 +10691,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -10748,7 +10720,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -10777,7 +10749,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -12493,6 +12465,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -12504,13 +12483,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -12518,11 +12490,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView showZeros="0" tabSelected="1" topLeftCell="M1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R7" sqref="R7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12554,39 +12526,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -12631,58 +12603,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -12707,23 +12679,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -12733,7 +12705,9 @@
       <c r="B6" s="61">
         <v>44848</v>
       </c>
-      <c r="C6" s="61"/>
+      <c r="C6" s="61">
+        <v>44852</v>
+      </c>
       <c r="D6" s="62" t="s">
         <v>44</v>
       </c>
@@ -12747,7 +12721,7 @@
         <v>64</v>
       </c>
       <c r="J6" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K6" s="65" t="s">
         <v>65</v>
@@ -12760,18 +12734,20 @@
       </c>
       <c r="N6" s="64"/>
       <c r="O6" s="64" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P6" s="66" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R6" s="67"/>
+      <c r="R6" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S6" s="76"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -12786,7 +12762,9 @@
       <c r="B7" s="61">
         <v>44848</v>
       </c>
-      <c r="C7" s="61"/>
+      <c r="C7" s="61">
+        <v>44852</v>
+      </c>
       <c r="D7" s="62" t="s">
         <v>44</v>
       </c>
@@ -12796,13 +12774,13 @@
       <c r="F7" s="62"/>
       <c r="G7" s="62"/>
       <c r="H7" s="62" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I7" s="63" t="s">
         <v>66</v>
       </c>
       <c r="J7" s="64" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K7" s="65" t="s">
         <v>67</v>
@@ -12811,22 +12789,24 @@
         <v>68</v>
       </c>
       <c r="M7" s="66" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N7" s="64"/>
       <c r="O7" s="64" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="P7" s="66" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="R7" s="67"/>
+      <c r="R7" s="67" t="s">
+        <v>24</v>
+      </c>
       <c r="S7" s="76"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -12855,7 +12835,7 @@
       <c r="R8" s="67"/>
       <c r="S8" s="76"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -12884,7 +12864,7 @@
       <c r="R9" s="67"/>
       <c r="S9" s="76"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -12913,7 +12893,7 @@
       <c r="R10" s="67"/>
       <c r="S10" s="76"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -12942,7 +12922,7 @@
       <c r="R11" s="67"/>
       <c r="S11" s="76"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -12971,7 +12951,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -13002,7 +12982,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -13031,7 +13011,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -13060,7 +13040,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -13089,7 +13069,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -13676,7 +13656,7 @@
       </c>
       <c r="V35" s="9">
         <f>COUNTIF($R$6:$R$51,"*NCFW*")</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W35" s="13"/>
     </row>
@@ -13740,7 +13720,7 @@
       </c>
       <c r="V37" s="9">
         <f>SUM(V26:V36)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W37" s="13"/>
     </row>
@@ -14805,6 +14785,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -14816,13 +14803,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14830,7 +14810,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -14866,39 +14846,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -14943,58 +14923,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -15019,23 +14999,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -15061,7 +15041,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -15092,7 +15072,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -15121,7 +15101,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -15150,7 +15130,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -15179,7 +15159,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -15208,7 +15188,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -15237,7 +15217,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -15268,7 +15248,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -15297,7 +15277,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -15326,7 +15306,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -15355,7 +15335,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -17071,6 +17051,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -17082,13 +17069,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -17096,7 +17076,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X115"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -17132,39 +17112,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="48"/>
@@ -17209,58 +17189,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="84" t="s">
+      <c r="O4" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="89" t="s">
+      <c r="P4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="84" t="s">
+      <c r="Q4" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="84" t="s">
+      <c r="R4" s="83" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="68" t="s">
         <v>1</v>
       </c>
@@ -17285,23 +17265,23 @@
       <c r="I5" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="68" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="90"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="85"/>
-      <c r="S5" s="91"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -17327,7 +17307,7 @@
       <c r="R6" s="67"/>
       <c r="S6" s="3"/>
       <c r="T6" s="69"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -17358,7 +17338,7 @@
       <c r="R7" s="2"/>
       <c r="S7" s="3"/>
       <c r="T7" s="69"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -17387,7 +17367,7 @@
       <c r="R8" s="2"/>
       <c r="S8" s="3"/>
       <c r="T8" s="69"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -17416,7 +17396,7 @@
       <c r="R9" s="2"/>
       <c r="S9" s="3"/>
       <c r="T9" s="69"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -17445,7 +17425,7 @@
       <c r="R10" s="2"/>
       <c r="S10" s="3"/>
       <c r="T10" s="69"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -17474,7 +17454,7 @@
       <c r="R11" s="2"/>
       <c r="S11" s="3"/>
       <c r="T11" s="69"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -17503,7 +17483,7 @@
       <c r="R12" s="2"/>
       <c r="S12" s="3"/>
       <c r="T12" s="69"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -17534,7 +17514,7 @@
       <c r="R13" s="2"/>
       <c r="S13" s="3"/>
       <c r="T13" s="69"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -17563,7 +17543,7 @@
       <c r="R14" s="2"/>
       <c r="S14" s="3"/>
       <c r="T14" s="69"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -17592,7 +17572,7 @@
       <c r="R15" s="2"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -17621,7 +17601,7 @@
       <c r="R16" s="2"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -19337,6 +19317,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -19348,13 +19335,6 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -19362,7 +19342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X57"/>
   <sheetViews>
     <sheetView showZeros="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -19398,39 +19378,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="79"/>
-      <c r="B1" s="79"/>
-      <c r="C1" s="79"/>
-      <c r="D1" s="79"/>
-      <c r="E1" s="79"/>
-      <c r="F1" s="79"/>
-      <c r="G1" s="79"/>
-      <c r="H1" s="79"/>
-      <c r="I1" s="79"/>
-      <c r="J1" s="79"/>
-      <c r="K1" s="79"/>
-      <c r="L1" s="79"/>
-      <c r="M1" s="79"/>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
-      <c r="P1" s="79"/>
-      <c r="Q1" s="79"/>
-      <c r="R1" s="79"/>
-      <c r="S1" s="79"/>
-      <c r="T1" s="79"/>
-      <c r="U1" s="79"/>
-      <c r="V1" s="79"/>
+      <c r="A1" s="87"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
       <c r="W1" s="44"/>
     </row>
     <row r="2" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="4"/>
       <c r="H2" s="20"/>
       <c r="I2" s="20"/>
@@ -19475,58 +19455,58 @@
       <c r="W3" s="26"/>
     </row>
     <row r="4" spans="1:23" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="78" t="s">
+      <c r="A4" s="91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78" t="s">
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
+      <c r="E4" s="86"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
+      <c r="I4" s="86"/>
+      <c r="J4" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="K4" s="78" t="s">
+      <c r="K4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="L4" s="78"/>
-      <c r="M4" s="84" t="s">
+      <c r="L4" s="86"/>
+      <c r="M4" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="84" t="s">
+      <c r="N4" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="78" t="s">
+      <c r="O4" s="86" t="s">
         <v>7</v>
       </c>
       <c r="P4" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="Q4" s="78" t="s">
+      <c r="Q4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="R4" s="78" t="s">
+      <c r="R4" s="86" t="s">
         <v>53</v>
       </c>
-      <c r="S4" s="91" t="s">
+      <c r="S4" s="85" t="s">
         <v>54</v>
       </c>
       <c r="T4" s="26"/>
-      <c r="U4" s="78" t="s">
+      <c r="U4" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="V4" s="78" t="s">
+      <c r="V4" s="86" t="s">
         <v>53</v>
       </c>
       <c r="W4" s="45"/>
     </row>
     <row r="5" spans="1:23" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="91"/>
       <c r="B5" s="41" t="s">
         <v>1</v>
       </c>
@@ -19551,23 +19531,23 @@
       <c r="I5" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="78"/>
+      <c r="J5" s="86"/>
       <c r="K5" s="41" t="s">
         <v>12</v>
       </c>
       <c r="L5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="78"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="86"/>
       <c r="P5" s="92"/>
-      <c r="Q5" s="78"/>
-      <c r="R5" s="78"/>
-      <c r="S5" s="91"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="85"/>
       <c r="T5" s="26"/>
-      <c r="U5" s="78"/>
-      <c r="V5" s="78"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
       <c r="W5" s="45"/>
     </row>
     <row r="6" spans="1:23" s="11" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -19593,7 +19573,7 @@
       <c r="R6" s="37"/>
       <c r="S6" s="3"/>
       <c r="T6" s="40"/>
-      <c r="U6" s="86" t="s">
+      <c r="U6" s="78" t="s">
         <v>18</v>
       </c>
       <c r="V6" s="3" t="s">
@@ -19624,7 +19604,7 @@
       <c r="R7" s="37"/>
       <c r="S7" s="3"/>
       <c r="T7" s="40"/>
-      <c r="U7" s="87"/>
+      <c r="U7" s="79"/>
       <c r="V7" s="3" t="s">
         <v>35</v>
       </c>
@@ -19653,7 +19633,7 @@
       <c r="R8" s="37"/>
       <c r="S8" s="3"/>
       <c r="T8" s="40"/>
-      <c r="U8" s="87"/>
+      <c r="U8" s="79"/>
       <c r="V8" s="3" t="s">
         <v>21</v>
       </c>
@@ -19682,7 +19662,7 @@
       <c r="R9" s="37"/>
       <c r="S9" s="3"/>
       <c r="T9" s="40"/>
-      <c r="U9" s="87"/>
+      <c r="U9" s="79"/>
       <c r="V9" s="3" t="s">
         <v>51</v>
       </c>
@@ -19711,7 +19691,7 @@
       <c r="R10" s="37"/>
       <c r="S10" s="3"/>
       <c r="T10" s="40"/>
-      <c r="U10" s="87"/>
+      <c r="U10" s="79"/>
       <c r="V10" s="3" t="s">
         <v>31</v>
       </c>
@@ -19740,7 +19720,7 @@
       <c r="R11" s="37"/>
       <c r="S11" s="3"/>
       <c r="T11" s="40"/>
-      <c r="U11" s="87"/>
+      <c r="U11" s="79"/>
       <c r="V11" s="3" t="s">
         <v>30</v>
       </c>
@@ -19769,7 +19749,7 @@
       <c r="R12" s="37"/>
       <c r="S12" s="3"/>
       <c r="T12" s="40"/>
-      <c r="U12" s="86" t="s">
+      <c r="U12" s="78" t="s">
         <v>19</v>
       </c>
       <c r="V12" s="3" t="s">
@@ -19800,7 +19780,7 @@
       <c r="R13" s="9"/>
       <c r="S13" s="3"/>
       <c r="T13" s="40"/>
-      <c r="U13" s="87"/>
+      <c r="U13" s="79"/>
       <c r="V13" s="3" t="s">
         <v>37</v>
       </c>
@@ -19829,7 +19809,7 @@
       <c r="R14" s="37"/>
       <c r="S14" s="3"/>
       <c r="T14" s="40"/>
-      <c r="U14" s="87"/>
+      <c r="U14" s="79"/>
       <c r="V14" s="3" t="s">
         <v>36</v>
       </c>
@@ -19858,7 +19838,7 @@
       <c r="R15" s="37"/>
       <c r="S15" s="3"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="87"/>
+      <c r="U15" s="79"/>
       <c r="V15" s="3" t="s">
         <v>24</v>
       </c>
@@ -19887,7 +19867,7 @@
       <c r="R16" s="37"/>
       <c r="S16" s="3"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="88"/>
+      <c r="U16" s="80"/>
       <c r="V16" s="3" t="s">
         <v>25</v>
       </c>
@@ -21118,13 +21098,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="U6:U11"/>
-    <mergeCell ref="U12:U16"/>
-    <mergeCell ref="P4:P5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="U4:U5"/>
     <mergeCell ref="V4:V5"/>
     <mergeCell ref="A1:V1"/>
     <mergeCell ref="A2:D2"/>
@@ -21136,6 +21109,13 @@
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
+    <mergeCell ref="U6:U11"/>
+    <mergeCell ref="U12:U16"/>
+    <mergeCell ref="P4:P5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="U4:U5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
